--- a/data/price/평균매매가격_종합.xlsx
+++ b/data/price/평균매매가격_종합.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
   <si>
     <t>지 역</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,7 +47,7 @@
     <t>한국부동산원</t>
   </si>
   <si>
-    <t>2022.05.09 04:01:08</t>
+    <t>2022.05.16 04:01:09</t>
   </si>
   <si>
     <t>천원</t>
@@ -422,7 +422,10 @@
     <t>2022년 03월</t>
   </si>
   <si>
-    <t>2012년 01월 ~ 2022년 03월</t>
+    <t>2022년 04월</t>
+  </si>
+  <si>
+    <t>2012년 01월 ~ 2022년 04월</t>
   </si>
   <si>
     <t>전국</t>
@@ -1102,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DW52"/>
+  <dimension ref="A1:DX52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,6 +1237,7 @@
     <col min="124" max="124" width="10.82421875" customWidth="true" bestFit="true"/>
     <col min="125" max="125" width="10.82421875" customWidth="true" bestFit="true"/>
     <col min="126" max="126" width="10.82421875" customWidth="true" bestFit="true"/>
+    <col min="127" max="127" width="10.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1256,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1271,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1709,10 +1713,13 @@
       <c r="DV11" t="s" s="9">
         <v>133</v>
       </c>
+      <c r="DW11" t="s" s="9">
+        <v>134</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" t="n" s="11">
         <v>241108.0</v>
@@ -2082,11 +2089,14 @@
       </c>
       <c r="DV12" t="n" s="11">
         <v>427256.0</v>
+      </c>
+      <c r="DW12" t="n" s="11">
+        <v>427237.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" t="n" s="11">
         <v>343420.0</v>
@@ -2456,11 +2466,14 @@
       </c>
       <c r="DV13" t="n" s="11">
         <v>626350.0</v>
+      </c>
+      <c r="DW13" t="n" s="11">
+        <v>626399.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14" t="n" s="11">
         <v>146377.0</v>
@@ -2830,11 +2843,14 @@
       </c>
       <c r="DV14" t="n" s="11">
         <v>255893.0</v>
+      </c>
+      <c r="DW14" t="n" s="11">
+        <v>255806.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="n" s="11">
         <v>183130.0</v>
@@ -3204,11 +3220,14 @@
       </c>
       <c r="DV15" t="n" s="11">
         <v>349305.0</v>
+      </c>
+      <c r="DW15" t="n" s="11">
+        <v>348881.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n" s="11">
         <v>179831.0</v>
@@ -3578,11 +3597,14 @@
       </c>
       <c r="DV16" t="n" s="11">
         <v>349308.0</v>
+      </c>
+      <c r="DW16" t="n" s="11">
+        <v>348816.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" t="n" s="11">
         <v>188230.0</v>
@@ -3952,11 +3974,14 @@
       </c>
       <c r="DV17" t="n" s="11">
         <v>327072.0</v>
+      </c>
+      <c r="DW17" t="n" s="11">
+        <v>327070.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" t="n" s="11">
         <v>124615.0</v>
@@ -4326,11 +4351,14 @@
       </c>
       <c r="DV18" t="n" s="11">
         <v>185123.0</v>
+      </c>
+      <c r="DW18" t="n" s="11">
+        <v>185339.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n" s="11">
         <v>484415.0</v>
@@ -4700,11 +4728,14 @@
       </c>
       <c r="DV19" t="n" s="11">
         <v>881860.0</v>
+      </c>
+      <c r="DW19" t="n" s="11">
+        <v>882567.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" t="n" s="11">
         <v>386182.0</v>
@@ -5074,11 +5105,14 @@
       </c>
       <c r="DV20" t="n" s="11">
         <v>741699.0</v>
+      </c>
+      <c r="DW20" t="n" s="11">
+        <v>742018.0</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="s" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" t="n" s="11">
         <v>583680.0</v>
@@ -5448,11 +5482,14 @@
       </c>
       <c r="DV21" t="n" s="11">
         <v>977671.0</v>
+      </c>
+      <c r="DW21" t="n" s="11">
+        <v>978838.0</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D22" t="n" s="11">
         <v>359451.0</v>
@@ -5822,11 +5859,14 @@
       </c>
       <c r="DV22" t="n" s="11">
         <v>696425.0</v>
+      </c>
+      <c r="DW22" t="n" s="11">
+        <v>696585.0</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="s" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" t="n" s="11">
         <v>357785.0</v>
@@ -6196,11 +6236,14 @@
       </c>
       <c r="DV23" t="n" s="11">
         <v>684268.0</v>
+      </c>
+      <c r="DW23" t="n" s="11">
+        <v>684491.0</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" t="n" s="11">
         <v>576750.0</v>
@@ -6570,11 +6613,14 @@
       </c>
       <c r="DV24" t="n" s="11">
         <v>1027819.0</v>
+      </c>
+      <c r="DW24" t="n" s="11">
+        <v>1028966.0</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D25" t="n" s="11">
         <v>437329.0</v>
@@ -6944,11 +6990,14 @@
       </c>
       <c r="DV25" t="n" s="11">
         <v>713451.0</v>
+      </c>
+      <c r="DW25" t="n" s="11">
+        <v>713776.0</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="n" s="11">
         <v>751883.0</v>
@@ -7318,11 +7367,14 @@
       </c>
       <c r="DV26" t="n" s="11">
         <v>1456909.0</v>
+      </c>
+      <c r="DW26" t="n" s="11">
+        <v>1459226.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" t="n" s="11">
         <v>273865.0</v>
@@ -7692,11 +7744,14 @@
       </c>
       <c r="DV27" t="n" s="11">
         <v>520535.0</v>
+      </c>
+      <c r="DW27" t="n" s="11">
+        <v>520206.0</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" t="n" s="11">
         <v>384639.0</v>
@@ -8066,11 +8121,14 @@
       </c>
       <c r="DV28" t="n" s="11">
         <v>835276.0</v>
+      </c>
+      <c r="DW28" t="n" s="11">
+        <v>835196.0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="10">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" t="n" s="11">
         <v>279727.0</v>
@@ -8440,11 +8498,14 @@
       </c>
       <c r="DV29" t="n" s="11">
         <v>543882.0</v>
+      </c>
+      <c r="DW29" t="n" s="11">
+        <v>542925.0</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" t="n" s="11">
         <v>227919.0</v>
@@ -8814,11 +8875,14 @@
       </c>
       <c r="DV30" t="n" s="11">
         <v>445172.0</v>
+      </c>
+      <c r="DW30" t="n" s="11">
+        <v>444579.0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" t="n" s="11">
         <v>292011.0</v>
@@ -9188,11 +9252,14 @@
       </c>
       <c r="DV31" t="n" s="11">
         <v>572561.0</v>
+      </c>
+      <c r="DW31" t="n" s="11">
+        <v>572410.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" t="n" s="11">
         <v>188844.0</v>
@@ -9562,11 +9629,14 @@
       </c>
       <c r="DV32" t="n" s="11">
         <v>234797.0</v>
+      </c>
+      <c r="DW32" t="n" s="11">
+        <v>235702.0</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" t="n" s="11">
         <v>285596.0</v>
@@ -9936,11 +10006,14 @@
       </c>
       <c r="DV33" t="n" s="11">
         <v>495732.0</v>
+      </c>
+      <c r="DW33" t="n" s="11">
+        <v>495839.0</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D34" t="n" s="11">
         <v>185203.0</v>
@@ -10310,11 +10383,14 @@
       </c>
       <c r="DV34" t="n" s="11">
         <v>268326.0</v>
+      </c>
+      <c r="DW34" t="n" s="11">
+        <v>268241.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" t="n" s="11">
         <v>193693.0</v>
@@ -10684,11 +10760,14 @@
       </c>
       <c r="DV35" t="n" s="11">
         <v>347522.0</v>
+      </c>
+      <c r="DW35" t="n" s="11">
+        <v>347331.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D36" t="n" s="11">
         <v>195295.0</v>
@@ -11058,11 +11137,14 @@
       </c>
       <c r="DV36" t="n" s="11">
         <v>365709.0</v>
+      </c>
+      <c r="DW36" t="n" s="11">
+        <v>365936.0</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D37" t="n" s="11">
         <v>185506.0</v>
@@ -11432,11 +11514,14 @@
       </c>
       <c r="DV37" t="n" s="11">
         <v>342368.0</v>
+      </c>
+      <c r="DW37" t="n" s="11">
+        <v>342331.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" t="n" s="11">
         <v>224813.0</v>
@@ -11806,11 +11891,14 @@
       </c>
       <c r="DV38" t="n" s="11">
         <v>466019.0</v>
+      </c>
+      <c r="DW38" t="n" s="11">
+        <v>466577.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" t="n" s="11">
         <v>177239.0</v>
@@ -12180,11 +12268,14 @@
       </c>
       <c r="DV39" t="n" s="11">
         <v>286728.0</v>
+      </c>
+      <c r="DW39" t="n" s="11">
+        <v>286982.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D40" t="n" s="11">
         <v>163724.0</v>
@@ -12554,11 +12645,14 @@
       </c>
       <c r="DV40" t="n" s="11">
         <v>376168.0</v>
+      </c>
+      <c r="DW40" t="n" s="11">
+        <v>374376.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41" t="n" s="11">
         <v>132796.0</v>
@@ -12928,11 +13022,14 @@
       </c>
       <c r="DV41" t="n" s="11">
         <v>284314.0</v>
+      </c>
+      <c r="DW41" t="n" s="11">
+        <v>284808.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" t="n" s="11">
         <v>197017.0</v>
@@ -13302,11 +13399,14 @@
       </c>
       <c r="DV42" t="n" s="11">
         <v>356938.0</v>
+      </c>
+      <c r="DW42" t="n" s="11">
+        <v>356301.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D43" t="n" s="11">
         <v>206601.0</v>
@@ -13676,44 +13776,47 @@
       </c>
       <c r="DV43" t="n" s="11">
         <v>322315.0</v>
+      </c>
+      <c r="DW43" t="n" s="11">
+        <v>321406.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N44" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O44" t="n" s="11">
         <v>150162.0</v>
@@ -14050,11 +14153,14 @@
       </c>
       <c r="DV44" t="n" s="11">
         <v>638168.0</v>
+      </c>
+      <c r="DW44" t="n" s="11">
+        <v>634328.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D45" t="n" s="11">
         <v>115390.0</v>
@@ -14424,11 +14530,14 @@
       </c>
       <c r="DV45" t="n" s="11">
         <v>166091.0</v>
+      </c>
+      <c r="DW45" t="n" s="11">
+        <v>166477.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D46" t="n" s="11">
         <v>131107.0</v>
@@ -14798,11 +14907,14 @@
       </c>
       <c r="DV46" t="n" s="11">
         <v>195722.0</v>
+      </c>
+      <c r="DW46" t="n" s="11">
+        <v>195765.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" t="n" s="11">
         <v>125765.0</v>
@@ -15172,11 +15284,14 @@
       </c>
       <c r="DV47" t="n" s="11">
         <v>200347.0</v>
+      </c>
+      <c r="DW47" t="n" s="11">
+        <v>200161.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" t="n" s="11">
         <v>108240.0</v>
@@ -15546,11 +15661,14 @@
       </c>
       <c r="DV48" t="n" s="11">
         <v>156045.0</v>
+      </c>
+      <c r="DW48" t="n" s="11">
+        <v>156504.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D49" t="n" s="11">
         <v>84838.0</v>
@@ -15920,11 +16038,14 @@
       </c>
       <c r="DV49" t="n" s="11">
         <v>136714.0</v>
+      </c>
+      <c r="DW49" t="n" s="11">
+        <v>136790.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" t="n" s="11">
         <v>112199.0</v>
@@ -16294,11 +16415,14 @@
       </c>
       <c r="DV50" t="n" s="11">
         <v>153365.0</v>
+      </c>
+      <c r="DW50" t="n" s="11">
+        <v>153583.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" t="n" s="11">
         <v>163486.0</v>
@@ -16668,11 +16792,14 @@
       </c>
       <c r="DV51" t="n" s="11">
         <v>218913.0</v>
+      </c>
+      <c r="DW51" t="n" s="11">
+        <v>219357.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D52" t="n" s="11">
         <v>135150.0</v>
@@ -17042,6 +17169,9 @@
       </c>
       <c r="DV52" t="n" s="11">
         <v>284662.0</v>
+      </c>
+      <c r="DW52" t="n" s="11">
+        <v>284802.0</v>
       </c>
     </row>
   </sheetData>
